--- a/mpm/ps9/eric/figures/p2iii.xlsx
+++ b/mpm/ps9/eric/figures/p2iii.xlsx
@@ -13,7 +13,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>thetaHat</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>thetaHat</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
   <si>
     <t>thetaHat</t>
   </si>
@@ -39,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -48,13 +60,17 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -67,64 +83,64 @@
   <dimension ref="A1:B7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>3.1112783344581847</v>
+        <v>3.1112556958596644</v>
       </c>
       <c r="B2" s="0">
-        <v>0.48552579110484106</v>
+        <v>0.48552601528955064</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>2.5416902261961494</v>
+        <v>2.5416414570595571</v>
       </c>
       <c r="B3" s="0">
-        <v>1.0046981963088233</v>
+        <v>1.0046977085643891</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>5.2773903177036612</v>
+        <v>5.2773573816067705</v>
       </c>
       <c r="B4" s="0">
-        <v>1.0152842417284784</v>
+        <v>1.0152856141006301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-9.0161863579939912</v>
+        <v>-9.0161693845743702</v>
       </c>
       <c r="B5" s="0">
-        <v>1.7008046960649235</v>
+        <v>1.7008057219024031</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0026360897361536986</v>
+        <v>-0.0026360836403169505</v>
       </c>
       <c r="B6" s="0">
-        <v>0.00060137595537362268</v>
+        <v>0.0006013764621758405</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.021752298541265858</v>
+        <v>-0.021752086309007233</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0046755886507758426</v>
+        <v>0.0046755925963661606</v>
       </c>
     </row>
   </sheetData>
